--- a/medicine/Psychotrope/Bancha/Bancha.xlsx
+++ b/medicine/Psychotrope/Bancha/Bancha.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le bancha (番茶?, littéralement « thé ordinaire ») est un thé vert japonais qui est issu de la dernière récolte du thé, qui a lieu en octobre. Le bancha est le thé vert commun (ordinaire) au Japon. Il est récolté à partir du même arbre que la qualité sencha, mais il est cueilli plus tard, ce qui lui donne une qualité inférieure sur le marché.
-Il est considéré comme la plus faible qualité de thé vert. Sa saveur est unique, elle a une forte odeur de paille organique[1].
+Il est considéré comme la plus faible qualité de thé vert. Sa saveur est unique, elle a une forte odeur de paille organique.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Préparation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le bancha se prépare en versant de l'eau chaude n'ayant pas atteint l’ébullition sur les feuilles, et en laissant infuser entre 30 secondes et 2 minutes. Si l’infusion est trop longue, le thé prend un goût métallique.
 </t>
